--- a/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_07-03-2023.xlsx
+++ b/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_07-03-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA1C2E-2D0A-4192-A2B2-887694206F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8532FA-025B-4018-9D1C-3C31375EE0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="5388" windowWidth="7500" windowHeight="3000" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyCust (2)" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="526">
   <si>
     <t>HC40T</t>
   </si>
@@ -1820,16 +1820,10 @@
     <t>Success</t>
   </si>
   <si>
+    <t>HH-Q00105R1-22-RIC</t>
+  </si>
+  <si>
     <t>M:\2. Sales Department\Unipath\Quotations\HH-Q00105R1-22-RIC.xlsx</t>
-  </si>
-  <si>
-    <t>HH-Q00105R1-22-RIC</t>
-  </si>
-  <si>
-    <t>M:\2. Sales Department\Unipath\Invoices\Daily\Invoices_05-03-2023\IN 22120686 - Daily Scenario.pdf</t>
-  </si>
-  <si>
-    <t>IN 22120686</t>
   </si>
 </sst>
 </file>
@@ -2947,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80626F-4EE6-4A1B-BAC6-4FE9B121A377}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Z2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3072,20 +3066,16 @@
     </row>
     <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>525</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>524</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>527</v>
-      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
         <v>30</v>
       </c>
@@ -3128,14 +3118,10 @@
       <c r="W2" t="s">
         <v>523</v>
       </c>
-      <c r="Y2" t="s">
-        <v>523</v>
-      </c>
       <c r="Z2" s="26"/>
     </row>
     <row r="3" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
